--- a/biology/Zoologie/Décapodiformes/Décapodiformes.xlsx
+++ b/biology/Zoologie/Décapodiformes/Décapodiformes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9capodiformes</t>
+          <t>Décapodiformes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les décapodiformes (Decabrachia ou Decapodiformes) sont le super-ordre qui regroupe toutes les espèces de mollusques présentant dix tentacules.
 Ces espèces sont habituellement désignées sous le nom de décapodes (« à dix pieds »), mais ce terme est ambigu car les décapodes (Decapoda) sont aussi un taxon de crustacés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9capodiformes</t>
+          <t>Décapodiformes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre des Teuthida, qui regroupait tous les « calmars », est désormais considéré comme obsolète parce que paraphylétique. Il est maintenant séparé en Myopsida et Oegopsida[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre des Teuthida, qui regroupait tous les « calmars », est désormais considéré comme obsolète parce que paraphylétique. Il est maintenant séparé en Myopsida et Oegopsida.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9capodiformes</t>
+          <t>Décapodiformes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,15 +557,17 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 janvier 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 janvier 2015) :
 Myopsida, des calmars ;
 Oegopsida, des calmars ;
 Sepiida, des seiches ;
 Spirulida, la spirule ;
 d'autres décapodiformes non assignés.
-Selon ITIS      (9 janvier 2015)[2] :
+Selon ITIS      (9 janvier 2015) :
 Sepiida Zittel, 1895, des seiches ;
 Sepiolida Fioroni, 1981, des seiches ;
 Spirulida Stolley, 1919 la spirule ;
